--- a/data/hin_tensor_adj.xlsx
+++ b/data/hin_tensor_adj.xlsx
@@ -1639,15 +1639,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F148"/>
+  <dimension ref="A1:L148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1661,7 +1661,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1682,8 +1682,12 @@
         <f>SUBSTITUTE(E2, ")", "")</f>
         <v>-45.5805</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1705,7 +1709,7 @@
         <v>-16.6688</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1727,7 +1731,7 @@
         <v>-11.7312</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1749,7 +1753,7 @@
         <v>-9.8549</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1771,7 +1775,7 @@
         <v>-9.8549</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1793,7 +1797,7 @@
         <v>-9.1773</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1815,7 +1819,7 @@
         <v>-5.6822</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1837,7 +1841,7 @@
         <v>-5.6822</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1859,7 +1863,7 @@
         <v>-5.6822</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1881,7 +1885,7 @@
         <v>-4.1804</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1903,7 +1907,7 @@
         <v>-2.5926</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1925,7 +1929,7 @@
         <v>-2.3548</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1947,7 +1951,7 @@
         <v>-2.3329</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1969,7 +1973,7 @@
         <v>-2.1453</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
